--- a/氣象性能評估工具V2/data/obs/2016-06-28_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-28_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="219">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>21.7</t>
+  </si>
+  <si>
     <t>2016-06-28-00</t>
   </si>
   <si>
-    <t>21.7</t>
-  </si>
-  <si>
     <t>28.2</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>26.8</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-28-01</t>
   </si>
   <si>
-    <t>21.2</t>
-  </si>
-  <si>
     <t>28.9</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>30.3</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-28-02</t>
   </si>
   <si>
-    <t>23.1</t>
-  </si>
-  <si>
     <t>24.1</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>7.7</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-28-05</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>24.3</t>
   </si>
   <si>
@@ -295,12 +295,12 @@
     <t>27.1</t>
   </si>
   <si>
+    <t>23.9</t>
+  </si>
+  <si>
     <t>2016-06-28-06</t>
   </si>
   <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>29.0</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>31.4</t>
   </si>
   <si>
+    <t>25.7</t>
+  </si>
+  <si>
     <t>2016-06-28-07</t>
   </si>
   <si>
-    <t>25.7</t>
-  </si>
-  <si>
     <t>25.1</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>29.9</t>
   </si>
   <si>
+    <t>25.8</t>
+  </si>
+  <si>
     <t>2016-06-28-09</t>
   </si>
   <si>
-    <t>25.8</t>
-  </si>
-  <si>
     <t>32.1</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>32.4</t>
   </si>
   <si>
+    <t>25.6</t>
+  </si>
+  <si>
     <t>2016-06-28-10</t>
   </si>
   <si>
-    <t>25.6</t>
-  </si>
-  <si>
     <t>34.4</t>
   </si>
   <si>
@@ -499,12 +499,12 @@
     <t>33.7</t>
   </si>
   <si>
+    <t>24.6</t>
+  </si>
+  <si>
     <t>2016-06-28-12</t>
   </si>
   <si>
-    <t>24.6</t>
-  </si>
-  <si>
     <t>35.7</t>
   </si>
   <si>
@@ -523,12 +523,12 @@
     <t>31.8</t>
   </si>
   <si>
+    <t>24.5</t>
+  </si>
+  <si>
     <t>2016-06-28-13</t>
   </si>
   <si>
-    <t>24.5</t>
-  </si>
-  <si>
     <t>32.2</t>
   </si>
   <si>
@@ -544,12 +544,12 @@
     <t>34.3</t>
   </si>
   <si>
+    <t>23.7</t>
+  </si>
+  <si>
     <t>2016-06-28-14</t>
   </si>
   <si>
-    <t>23.7</t>
-  </si>
-  <si>
     <t>30.8</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>10.2</t>
   </si>
   <si>
+    <t>23.3</t>
+  </si>
+  <si>
     <t>2016-06-28-15</t>
   </si>
   <si>
-    <t>23.3</t>
-  </si>
-  <si>
     <t>18.9</t>
   </si>
   <si>
@@ -607,12 +607,12 @@
     <t>2016-06-28-18</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-28-19</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>23.0</t>
   </si>
   <si>
@@ -622,12 +622,12 @@
     <t>6.7</t>
   </si>
   <si>
+    <t>21.5</t>
+  </si>
+  <si>
     <t>2016-06-28-20</t>
   </si>
   <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>22.5</t>
   </si>
   <si>
@@ -646,22 +646,22 @@
     <t>13.8</t>
   </si>
   <si>
+    <t>21.6</t>
+  </si>
+  <si>
     <t>2016-06-28-22</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
     <t>25.9</t>
   </si>
   <si>
     <t>14.0</t>
   </si>
   <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>2016-06-28-23</t>
-  </si>
-  <si>
-    <t>21.8</t>
   </si>
   <si>
     <t>22.9</t>
@@ -677,6 +677,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -706,8 +709,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,11 +1090,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1163,11 +1167,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1240,11 +1244,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -1317,11 +1321,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -1394,11 +1398,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -1471,11 +1475,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1514,7 +1518,7 @@
         <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
         <v>90</v>
@@ -1548,11 +1552,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -1625,11 +1629,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -1702,7 +1706,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B10" t="s">
@@ -1779,11 +1783,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -1856,11 +1860,11 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>102</v>
@@ -1933,7 +1937,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B13" t="s">
@@ -2010,11 +2014,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
         <v>161</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>159</v>
@@ -2087,11 +2091,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
         <v>169</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
       </c>
       <c r="C15" t="s">
         <v>140</v>
@@ -2164,17 +2168,17 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s">
         <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
         <v>107</v>
@@ -2241,11 +2245,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" t="s">
-        <v>183</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -2284,7 +2288,7 @@
         <v>43</v>
       </c>
       <c r="O17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s">
         <v>184</v>
@@ -2318,11 +2322,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -2395,7 +2399,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B19" t="s">
@@ -2405,7 +2409,7 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -2417,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
         <v>194</v>
@@ -2438,7 +2442,7 @@
         <v>58</v>
       </c>
       <c r="O19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P19" t="s">
         <v>195</v>
@@ -2472,17 +2476,17 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
@@ -2494,7 +2498,7 @@
         <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -2515,7 +2519,7 @@
         <v>81</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
         <v>54</v>
@@ -2549,11 +2553,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" t="s">
         <v>197</v>
-      </c>
-      <c r="B21" t="s">
-        <v>198</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -2571,7 +2575,7 @@
         <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
@@ -2626,11 +2630,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
         <v>202</v>
-      </c>
-      <c r="B22" t="s">
-        <v>203</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -2703,11 +2707,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>208</v>
@@ -2725,7 +2729,7 @@
         <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>194</v>
@@ -2780,11 +2784,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s">
         <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
       </c>
       <c r="C24" t="s">
         <v>76</v>
@@ -2857,17 +2861,17 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
         <v>214</v>
-      </c>
-      <c r="B25" t="s">
-        <v>215</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
@@ -2879,7 +2883,7 @@
         <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
         <v>38</v>
